--- a/Agencies.xlsx
+++ b/Agencies.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Agencies" sheetId="1" r:id="rId1"/>
+    <sheet name="National_Science_Foundation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
   <si>
     <t>Department of Agriculture</t>
   </si>
@@ -167,19 +168,290 @@
   </si>
   <si>
     <t>$141M</t>
+  </si>
+  <si>
+    <t>UII</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <t>Investment Title</t>
+  </si>
+  <si>
+    <t>Total FY2021 Spending ($M)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CIO Rating</t>
+  </si>
+  <si>
+    <t># of Projects</t>
+  </si>
+  <si>
+    <t>Href</t>
+  </si>
+  <si>
+    <t>422-000000004</t>
+  </si>
+  <si>
+    <t>Data Management and Delivery</t>
+  </si>
+  <si>
+    <t>$8.330</t>
+  </si>
+  <si>
+    <t>Major IT</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>https://itdashboard.gov/drupal/summary/422/422-000000004</t>
+  </si>
+  <si>
+    <t>422-000001327</t>
+  </si>
+  <si>
+    <t>iTRAK</t>
+  </si>
+  <si>
+    <t>$8.671</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>https://itdashboard.gov/drupal/summary/422/422-000001327</t>
+  </si>
+  <si>
+    <t>422-000001328</t>
+  </si>
+  <si>
+    <t>Mission Support Systems</t>
+  </si>
+  <si>
+    <t>$50.306</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>https://itdashboard.gov/drupal/summary/422/422-000001328</t>
+  </si>
+  <si>
+    <t>422-000000003</t>
+  </si>
+  <si>
+    <t>Administrative Applications</t>
+  </si>
+  <si>
+    <t>$2.953</t>
+  </si>
+  <si>
+    <t>Non-major IT</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>422-000000026</t>
+  </si>
+  <si>
+    <t>Human Resources Support System</t>
+  </si>
+  <si>
+    <t>$2.450</t>
+  </si>
+  <si>
+    <t>422-000001363</t>
+  </si>
+  <si>
+    <t>Financial Services Support</t>
+  </si>
+  <si>
+    <t>$2.612</t>
+  </si>
+  <si>
+    <t>422-999990060</t>
+  </si>
+  <si>
+    <t>E-Rulemaking</t>
+  </si>
+  <si>
+    <t>$0.017</t>
+  </si>
+  <si>
+    <t>Funding Transfer</t>
+  </si>
+  <si>
+    <t>422-999990160</t>
+  </si>
+  <si>
+    <t>Grants.gov</t>
+  </si>
+  <si>
+    <t>$0.323</t>
+  </si>
+  <si>
+    <t>422-999990230</t>
+  </si>
+  <si>
+    <t>Integrated Acquisition Environment</t>
+  </si>
+  <si>
+    <t>$0.720</t>
+  </si>
+  <si>
+    <t>422-999991100</t>
+  </si>
+  <si>
+    <t>LOB: Financial Management</t>
+  </si>
+  <si>
+    <t>$0.139</t>
+  </si>
+  <si>
+    <t>422-999991200</t>
+  </si>
+  <si>
+    <t>LOB: Human Resource Management</t>
+  </si>
+  <si>
+    <t>$0.068</t>
+  </si>
+  <si>
+    <t>422-999991218</t>
+  </si>
+  <si>
+    <t>USAJOBS</t>
+  </si>
+  <si>
+    <t>$0.010</t>
+  </si>
+  <si>
+    <t>422-999993100</t>
+  </si>
+  <si>
+    <t>LOB: Geospatial</t>
+  </si>
+  <si>
+    <t>$0.025</t>
+  </si>
+  <si>
+    <t>422-999993200</t>
+  </si>
+  <si>
+    <t>LOB: Budget Formulation</t>
+  </si>
+  <si>
+    <t>$0.120</t>
+  </si>
+  <si>
+    <t>422-999993400</t>
+  </si>
+  <si>
+    <t>LOB:  Hiring Assessment</t>
+  </si>
+  <si>
+    <t>$0.000</t>
+  </si>
+  <si>
+    <t>422-000000016</t>
+  </si>
+  <si>
+    <t>IT Security and Privacy Initiatives</t>
+  </si>
+  <si>
+    <t>$8.877</t>
+  </si>
+  <si>
+    <t>Standard IT Infrastructure</t>
+  </si>
+  <si>
+    <t>422-000001362</t>
+  </si>
+  <si>
+    <t>IT Management</t>
+  </si>
+  <si>
+    <t>$5.433</t>
+  </si>
+  <si>
+    <t>422-000001364</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>$10.949</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>422-000001365</t>
+  </si>
+  <si>
+    <t>Data Center and Cloud</t>
+  </si>
+  <si>
+    <t>$7.463</t>
+  </si>
+  <si>
+    <t>422-000001366</t>
+  </si>
+  <si>
+    <t>End User</t>
+  </si>
+  <si>
+    <t>$16.231</t>
+  </si>
+  <si>
+    <t>422-000001369</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>$0.800</t>
+  </si>
+  <si>
+    <t>422-000001370</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>$9.888</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,13 +471,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -923,4 +1201,563 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>